--- a/ig/ch-epr-fhir/ValueSet-PpqmReferencedPolicySetGroupEmergency.xlsx
+++ b/ig/ch-epr-fhir/ValueSet-PpqmReferencedPolicySetGroupEmergency.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0-ballot</t>
+    <t>4.0.1-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T20:14:33+00:00</t>
+    <t>2024-05-16T21:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-epr-fhir/ValueSet-PpqmReferencedPolicySetGroupEmergency.xlsx
+++ b/ig/ch-epr-fhir/ValueSet-PpqmReferencedPolicySetGroupEmergency.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from unknown" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1-ballot</t>
+    <t>4.0.1-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T21:49:21+00:00</t>
+    <t>2024-11-19T17:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-epr-fhir/ValueSet-PpqmReferencedPolicySetGroupEmergency.xlsx
+++ b/ig/ch-epr-fhir/ValueSet-PpqmReferencedPolicySetGroupEmergency.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1-ballot-2</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-19T17:31:05+00:00</t>
+    <t>2024-12-18T12:16:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-epr-fhir/ValueSet-PpqmReferencedPolicySetGroupEmergency.xlsx
+++ b/ig/ch-epr-fhir/ValueSet-PpqmReferencedPolicySetGroupEmergency.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T12:16:22+00:00</t>
+    <t>2025-05-22T13:39:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>eHealth Suisse (https://www.e-health-suisse.ch)</t>
+  </si>
+  <si>
+    <t>eHealth Suisse (https://www.e-health-suisse.ch(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -257,7 +260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -349,40 +352,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>26</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B15" t="s" s="2">
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>28</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -404,42 +415,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-epr-fhir/ValueSet-PpqmReferencedPolicySetGroupEmergency.xlsx
+++ b/ig/ch-epr-fhir/ValueSet-PpqmReferencedPolicySetGroupEmergency.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T13:39:01+00:00</t>
+    <t>2025-12-18T15:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
